--- a/book_test.xlsx
+++ b/book_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Svittsov\sberbank_huinya\gh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D49194-64CC-4308-ABAB-21D169A37EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97D786-61AE-4192-82A3-2D0FAE9E4944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P_LIST" sheetId="1" r:id="rId1"/>
@@ -370,21 +370,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
